--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -580,7 +580,7 @@
   <dimension ref="A1:E544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -580,7 +580,7 @@
   <dimension ref="A1:E544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
